--- a/biology/Zoologie/Callithrix_emiliae/Callithrix_emiliae.xlsx
+++ b/biology/Zoologie/Callithrix_emiliae/Callithrix_emiliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mico emiliae · Ouistiti du Rondônia
-Le Ouistiti du Rondônia[1] (Mico emiliae ou Callithrix  emiliae) est une espèce de primate de la famille des Callitrichidae.
+Le Ouistiti du Rondônia (Mico emiliae ou Callithrix  emiliae) est une espèce de primate de la famille des Callitrichidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Snethlage’s marmoset, Emilia’s marmoset. Chuim (Brésil).
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre-nord du Brésil, dans le nord du Pará. Dans une zone comprise entre le rio Curuá à l’ouest et le rio Irirí à l’est. Au sud-ouest jusqu’à la rive droite du rio Teles Pires, au moins jusqu’à la Serra do Cachimbo.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerrado.
 </t>
@@ -605,7 +623,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite espèce lourde et robuste. Dessus variant du fauve argenté devant au fauve marron postérieurement. Dessus crème sombre. Pas de raie à la hanche. Queue noire non annelée. Joues et front blanchâtres. Couronne marron sombre, noire à son sommet et avec une petite tache blanche dans la région occipitale. Face nue rosâtre à fauve clair. Oreilles à peine visibles, quasiment nues à l’exception de rares poils noirâtres.
 </t>
@@ -636,7 +656,9 @@
           <t>Mensurations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps 21 cm. Queue 33 cm. Poids 410 g.
 </t>
@@ -667,7 +689,9 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Quadrupède.
 </t>
@@ -698,7 +722,9 @@
           <t>Comportements basiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Diurne. Arboricole.
 </t>
@@ -729,7 +755,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Frugivore-gommivore-insectivore.
 </t>
@@ -760,7 +788,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Réserve du Rio Cristalino (nord du Mato Grosso, région d’Alta Floresta), au Brésil.
 </t>
@@ -792,6 +822,8 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
